--- a/data/fractionation/Quant/221215 Batch 132 EFGH Water Yr Quant.xlsx
+++ b/data/fractionation/Quant/221215 Batch 132 EFGH Water Yr Quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\221207 Batch 132 Water yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1886FA-F7C3-448E-8F4B-1D2CE818D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7722B5-820D-4645-AA15-7B61DA56A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -465,8 +465,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +510,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,6 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,7 +555,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7942,9 +7957,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7982,9 +7997,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8017,26 +8032,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8069,26 +8067,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8268,13 +8249,13 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.40625" customWidth="1"/>
-    <col min="12" max="12" width="15.86328125" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -8567,7 +8548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8860,12 +8841,12 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8897,7 +8878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8939,7 +8920,7 @@
         <v>2.9615128127941706</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8982,7 +8963,7 @@
         <v>8.1280650568535648</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -9025,7 +9006,7 @@
         <v>15.386990483865361</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9068,7 +9049,7 @@
         <v>51.488475478959515</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9111,7 +9092,7 @@
         <v>78.930754532296802</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9154,7 +9135,7 @@
         <v>119.10431964498294</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9193,7 +9174,7 @@
         <v>230.00009834146027</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9227,7 +9208,7 @@
         <v>326.82869117716535</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9254,7 +9235,7 @@
         <v>405.85601677944453</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9281,7 +9262,7 @@
         <v>776.54406890695827</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -9308,7 +9289,7 @@
         <v>746.22075293247894</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9335,7 +9316,7 @@
         <v>547.79939447526954</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9362,7 +9343,7 @@
         <v>312.14988853983766</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9389,7 +9370,7 @@
         <v>161.37025794062146</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9416,7 +9397,7 @@
         <v>85.867776392700534</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9443,7 +9424,7 @@
         <v>52.244948860488456</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9470,7 +9451,7 @@
         <v>30.500362936113874</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9497,7 +9478,7 @@
         <v>16.417081897011162</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9524,7 +9505,7 @@
         <v>15.193848343900525</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9551,7 +9532,7 @@
         <v>12.570334276044822</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9578,7 +9559,7 @@
         <v>8.9811095083649288</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9605,7 +9586,7 @@
         <v>2.9454176344637673</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -9632,7 +9613,7 @@
         <v>9.65710699824186E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -9659,7 +9640,7 @@
         <v>0.85304445151136432</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -9686,7 +9667,7 @@
         <v>1.6417081897011161</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -9713,7 +9694,7 @@
         <v>4.9573149257641544</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9740,7 +9721,7 @@
         <v>18.219741870016307</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9767,7 +9748,7 @@
         <v>46.305828056569716</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9794,7 +9775,7 @@
         <v>93.931460736232481</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9821,7 +9802,7 @@
         <v>188.28139610905544</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9848,7 +9829,7 @@
         <v>334.10371178250756</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9875,7 +9856,7 @@
         <v>517.87845795905014</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9902,7 +9883,7 @@
         <v>518.28083741731018</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9929,7 +9910,7 @@
         <v>377.6733595229087</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -9956,7 +9937,7 @@
         <v>215.28910534747186</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -9983,7 +9964,7 @@
         <v>104.32894593767288</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10010,7 +9991,7 @@
         <v>48.172868742896469</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -10037,7 +10018,7 @@
         <v>28.343609039839855</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -10064,7 +10045,7 @@
         <v>18.863549003232432</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -10091,7 +10072,7 @@
         <v>11.588528397890233</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10118,7 +10099,7 @@
         <v>12.087478926132727</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10145,7 +10126,7 @@
         <v>14.614421924006013</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -10172,7 +10153,7 @@
         <v>6.9853073953949449</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -10199,7 +10180,7 @@
         <v>2.2372297879260308</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10226,7 +10207,7 @@
         <v>-0.37018910159927132</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10253,7 +10234,7 @@
         <v>1.8509455079963564</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10280,7 +10261,7 @@
         <v>1.7221840813531317</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -10307,7 +10288,7 @@
         <v>3.7984620859751312</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10334,7 +10315,7 @@
         <v>12.377192136079982</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10361,7 +10342,7 @@
         <v>27.297422448363658</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10388,7 +10369,7 @@
         <v>52.293234395479672</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10415,7 +10396,7 @@
         <v>132.81741158248639</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -10442,7 +10423,7 @@
         <v>294.13938398811661</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -10469,7 +10450,7 @@
         <v>703.82605321019707</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10496,7 +10477,7 @@
         <v>989.27404089989614</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -10523,7 +10504,7 @@
         <v>805.57977061500549</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10550,7 +10531,7 @@
         <v>475.25842574014268</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -10577,7 +10558,7 @@
         <v>186.9615914859624</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -10604,7 +10585,7 @@
         <v>87.123200302471972</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -10631,7 +10612,7 @@
         <v>61.564057113791854</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -10658,7 +10639,7 @@
         <v>35.811771785146895</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -10685,7 +10666,7 @@
         <v>20.247734339647096</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -10712,7 +10693,7 @@
         <v>19.925830773039038</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -10739,7 +10720,7 @@
         <v>16.642414393636805</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -10766,7 +10747,7 @@
         <v>10.252628596466772</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10793,7 +10774,7 @@
         <v>3.8950331559575502</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10820,7 +10801,7 @@
         <v>-0.30580838827765888</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -10847,7 +10828,7 @@
         <v>-0.45066499325128678</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -10874,7 +10855,7 @@
         <v>0.62771195488572085</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -10901,7 +10882,7 @@
         <v>13.600425689190619</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -10928,7 +10909,7 @@
         <v>7.9832084518799373</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10955,7 +10936,7 @@
         <v>21.744585924374586</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10982,7 +10963,7 @@
         <v>42.394699722281757</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11009,7 +10990,7 @@
         <v>106.5339853689381</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11036,7 +11017,7 @@
         <v>228.32619979509838</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -11063,7 +11044,7 @@
         <v>475.19404502682107</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -11090,7 +11071,7 @@
         <v>587.57058012969549</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -11117,7 +11098,7 @@
         <v>418.42635105548936</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -11144,7 +11125,7 @@
         <v>244.03509384557179</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -11171,7 +11152,7 @@
         <v>99.532582795212775</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -11198,7 +11179,7 @@
         <v>47.432490539697937</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -11225,7 +11206,7 @@
         <v>31.884548272528541</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -11252,7 +11233,7 @@
         <v>20.022401843021456</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -11279,7 +11260,7 @@
         <v>13.938424434129084</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -11306,7 +11287,7 @@
         <v>11.846051251176682</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -11333,7 +11314,7 @@
         <v>7.5647338152894559</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -11360,7 +11341,7 @@
         <v>4.5871258241648833</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -11387,7 +11368,7 @@
         <v>2.6235140678557052</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -11395,7 +11376,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -11403,7 +11384,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -11411,7 +11392,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -11419,7 +11400,7 @@
         <v>53463</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -11427,7 +11408,7 @@
         <v>32940</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -11435,7 +11416,7 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -11443,7 +11424,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -11467,13 +11448,13 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.40625" customWidth="1"/>
-    <col min="12" max="12" width="15.86328125" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -11766,7 +11747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12059,12 +12040,12 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="18" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12096,7 +12077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12135,7 +12116,7 @@
         <v>2.3428447200719886</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -12174,7 +12155,7 @@
         <v>8.590430640263957</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -12213,7 +12194,7 @@
         <v>16.562610590508918</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12252,7 +12233,7 @@
         <v>49.378706426517255</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12291,7 +12272,7 @@
         <v>79.136088322431618</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12330,7 +12311,7 @@
         <v>122.9017292737764</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12369,7 +12350,7 @@
         <v>230.86782345709389</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -12403,7 +12384,7 @@
         <v>321.83202366488894</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12430,7 +12411,7 @@
         <v>399.66653158728047</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -12457,7 +12438,7 @@
         <v>783.14465694906357</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12484,7 +12465,7 @@
         <v>758.70748493831275</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12511,7 +12492,7 @@
         <v>557.09268097211771</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12538,7 +12519,7 @@
         <v>311.92374286958449</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12565,7 +12546,7 @@
         <v>160.61502136493519</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -12592,7 +12573,7 @@
         <v>88.540006712720555</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12619,7 +12600,7 @@
         <v>52.323532081607745</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12646,7 +12627,7 @@
         <v>30.343093075932352</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12673,7 +12654,7 @@
         <v>16.26975500049992</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12700,7 +12681,7 @@
         <v>14.17095660543543</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12727,7 +12708,7 @@
         <v>12.983264490398936</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12754,7 +12735,7 @@
         <v>8.6717794152664567</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12781,7 +12762,7 @@
         <v>3.5630763451094829</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -12808,7 +12789,7 @@
         <v>-1.3503896650414935</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -12835,7 +12816,7 @@
         <v>1.626975500049992E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12862,7 +12843,7 @@
         <v>0.56944142501749717</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -12889,7 +12870,7 @@
         <v>3.7420436501149816</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -12916,7 +12897,7 @@
         <v>18.31974413056291</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12943,7 +12924,7 @@
         <v>48.191014311480764</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12970,7 +12951,7 @@
         <v>94.429658022901535</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -12997,7 +12978,7 @@
         <v>190.74660762586106</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13024,7 +13005,7 @@
         <v>336.47480316533887</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13051,7 +13032,7 @@
         <v>517.19924171089201</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -13078,7 +13059,7 @@
         <v>515.75123351584739</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -13105,7 +13086,7 @@
         <v>375.71745222654465</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -13132,7 +13113,7 @@
         <v>214.53298943659195</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -13159,7 +13140,7 @@
         <v>104.98872901822597</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13186,7 +13167,7 @@
         <v>49.541403976522254</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -13213,7 +13194,7 @@
         <v>28.895084880887858</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13240,7 +13221,7 @@
         <v>18.433632415566411</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -13267,7 +13248,7 @@
         <v>10.526531485323448</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13294,7 +13275,7 @@
         <v>9.9896295703069509</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13321,7 +13302,7 @@
         <v>8.0209892152464608</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -13348,7 +13329,7 @@
         <v>6.7194088152064673</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13375,7 +13356,7 @@
         <v>1.9523706000599905</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -13402,7 +13383,7 @@
         <v>-0.66705995502049675</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13429,7 +13410,7 @@
         <v>-0.66705995502049675</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -13456,7 +13437,7 @@
         <v>1.6432452550504919</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -13483,7 +13464,7 @@
         <v>2.7333188400839865</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -13510,7 +13491,7 @@
         <v>11.697953845359443</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13537,7 +13518,7 @@
         <v>25.087962210770876</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -13564,7 +13545,7 @@
         <v>53.511224196644235</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -13591,7 +13572,7 @@
         <v>138.2603779942483</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -13618,7 +13599,7 @@
         <v>286.44530653880162</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13645,7 +13626,7 @@
         <v>727.3393972973488</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13672,7 +13653,7 @@
         <v>998.67010144068615</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -13699,7 +13680,7 @@
         <v>802.60328392966153</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -13726,7 +13707,7 @@
         <v>470.48877510445669</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -13753,7 +13734,7 @@
         <v>176.07128861541014</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -13780,7 +13761,7 @@
         <v>88.051914062705578</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -13807,7 +13788,7 @@
         <v>60.800074436868201</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -13834,7 +13815,7 @@
         <v>35.110131291078829</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -13861,7 +13842,7 @@
         <v>20.158226445619402</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -13888,7 +13869,7 @@
         <v>19.019343595584406</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -13915,7 +13896,7 @@
         <v>16.17213647049692</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -13942,7 +13923,7 @@
         <v>8.6880491702669573</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -13969,7 +13950,7 @@
         <v>4.4904523801379783</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -13996,7 +13977,7 @@
         <v>-1.9361008450594905</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -14023,7 +14004,7 @@
         <v>-0.30912534500949851</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14050,7 +14031,7 @@
         <v>9.7618530002999526E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14077,7 +14058,7 @@
         <v>2.1313379050654895</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -14104,7 +14085,7 @@
         <v>7.5328965652314626</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14131,7 +14112,7 @@
         <v>22.419722390688889</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14158,7 +14139,7 @@
         <v>42.756916141313788</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -14185,7 +14166,7 @@
         <v>108.74704242334147</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -14212,7 +14193,7 @@
         <v>224.68531655690387</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -14239,7 +14220,7 @@
         <v>482.85378890483662</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -14266,7 +14247,7 @@
         <v>616.02173358392849</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14293,7 +14274,7 @@
         <v>428.74058377317391</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -14320,7 +14301,7 @@
         <v>249.56177195266829</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -14347,7 +14328,7 @@
         <v>100.53081614808902</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -14374,7 +14355,7 @@
         <v>50.452510256550255</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -14401,7 +14382,7 @@
         <v>33.385537261025831</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -14428,7 +14409,7 @@
         <v>20.402272770626901</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -14455,7 +14436,7 @@
         <v>16.383643285503421</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -14482,7 +14463,7 @@
         <v>12.641599635388438</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -14509,7 +14490,7 @@
         <v>7.9884497052454604</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -14536,7 +14517,7 @@
         <v>4.3114850751324791</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -14563,7 +14544,7 @@
         <v>1.9523706000599905</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -14571,7 +14552,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -14579,7 +14560,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -14587,7 +14568,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -14595,7 +14576,7 @@
         <v>52790</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -14603,7 +14584,7 @@
         <v>32377</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -14611,7 +14592,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -14619,7 +14600,7 @@
         <v>6087</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -14638,17 +14619,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CT104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.40625" customWidth="1"/>
-    <col min="12" max="12" width="15.86328125" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -14941,7 +14922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -15234,12 +15215,12 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -15271,7 +15252,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15310,7 +15291,7 @@
         <v>2.9662310631017927</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15349,7 +15330,7 @@
         <v>8.1747915608102986</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -15388,7 +15369,7 @@
         <v>15.660993767686254</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15427,7 +15408,7 @@
         <v>52.509352271813881</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15466,7 +15447,7 @@
         <v>79.187775702449656</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -15505,7 +15486,7 @@
         <v>121.68609813629499</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15544,7 +15525,7 @@
         <v>237.45739028366674</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15578,7 +15559,7 @@
         <v>334.93692420857747</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -15605,7 +15586,7 @@
         <v>410.09910061110327</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -15632,7 +15613,7 @@
         <v>793.3079041442063</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -15659,7 +15640,7 @@
         <v>748.21412953014692</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -15686,7 +15667,7 @@
         <v>555.53270338949301</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -15713,7 +15694,7 @@
         <v>311.75441595945449</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -15740,7 +15721,7 @@
         <v>163.44286280436489</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -15767,7 +15748,7 @@
         <v>86.868195419409645</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -15794,7 +15775,7 @@
         <v>52.915443429262339</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15821,7 +15802,7 @@
         <v>31.021833201606253</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -15848,7 +15829,7 @@
         <v>15.519744669443309</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15875,7 +15856,7 @@
         <v>15.201934198396689</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15902,7 +15883,7 @@
         <v>13.030229312911448</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15929,7 +15910,7 @@
         <v>8.7397879537820682</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -15956,7 +15937,7 @@
         <v>2.8249819648588503</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15983,7 +15964,7 @@
         <v>-0.65327707937360924</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -16010,7 +15991,7 @@
         <v>0.58265253025213792</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -16037,7 +16018,7 @@
         <v>1.430147119709793</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -16064,7 +16045,7 @@
         <v>4.6965325165778387</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -16091,7 +16072,7 @@
         <v>18.75081779175062</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -16118,7 +16099,7 @@
         <v>48.360160010927444</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -16145,7 +16126,7 @@
         <v>95.607983373191715</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16172,7 +16153,7 @@
         <v>191.35721584462641</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16199,7 +16180,7 @@
         <v>337.99143595808113</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -16226,7 +16207,7 @@
         <v>525.58789456198917</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -16253,7 +16234,7 @@
         <v>526.06461026855902</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16280,7 +16261,7 @@
         <v>377.55883960338537</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -16307,7 +16288,7 @@
         <v>218.81250931559833</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -16334,7 +16315,7 @@
         <v>105.47776411291734</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -16361,7 +16342,7 @@
         <v>49.013437090301053</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -16388,7 +16369,7 @@
         <v>28.691223080597702</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -16415,7 +16396,7 @@
         <v>19.174565086479447</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -16442,7 +16423,7 @@
         <v>10.982117388388781</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -16469,7 +16450,7 @@
         <v>11.864924252407171</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16496,7 +16477,7 @@
         <v>10.576026230940322</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -16523,7 +16504,7 @@
         <v>6.020742812605425</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -16550,7 +16531,7 @@
         <v>1.9245189635600917</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16577,7 +16558,7 @@
         <v>-0.82983845217728736</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -16604,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -16631,7 +16612,7 @@
         <v>1.3242102960275861</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -16658,7 +16639,7 @@
         <v>3.2487292595876784</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16685,7 +16666,7 @@
         <v>11.600082193201654</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -16712,7 +16693,7 @@
         <v>26.625455018794668</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -16739,7 +16720,7 @@
         <v>53.144973213907122</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -16766,7 +16747,7 @@
         <v>134.15133105623465</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16793,7 +16774,7 @@
         <v>294.83983644486216</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -16820,7 +16801,7 @@
         <v>695.95196318025819</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -16847,7 +16828,7 @@
         <v>1039.7875805781409</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -16874,7 +16855,7 @@
         <v>797.45709640509278</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -16901,7 +16882,7 @@
         <v>478.35772733700526</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -16928,7 +16909,7 @@
         <v>181.50509124218115</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -16955,7 +16936,7 @@
         <v>87.645065459745837</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16982,7 +16963,7 @@
         <v>61.708199794885516</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -17009,7 +16990,7 @@
         <v>35.082744776090848</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -17036,7 +17017,7 @@
         <v>20.251589460581883</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -17063,7 +17044,7 @@
         <v>19.22753349832055</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -17090,7 +17071,7 @@
         <v>16.596769043545748</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -17117,7 +17098,7 @@
         <v>10.011029837968552</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -17144,7 +17125,7 @@
         <v>3.2134169850269423</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -17171,7 +17152,7 @@
         <v>0.26484205920551723</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -17198,7 +17179,7 @@
         <v>-1.0946805113828044</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -17225,7 +17206,7 @@
         <v>0.15890523552331035</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -17252,7 +17233,7 @@
         <v>1.4124909824294252</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -17279,7 +17260,7 @@
         <v>8.0158863252869885</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -17306,7 +17287,7 @@
         <v>21.611112031170205</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -17333,7 +17314,7 @@
         <v>43.575346807947774</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -17360,7 +17341,7 @@
         <v>107.38462693919706</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -17387,7 +17368,7 @@
         <v>230.50087219520182</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -17414,7 +17395,7 @@
         <v>471.48948993494218</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -17441,7 +17422,7 @@
         <v>589.07936422219177</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -17468,7 +17449,7 @@
         <v>418.09733079910984</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -17495,7 +17476,7 @@
         <v>242.70126305593601</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17522,7 +17503,7 @@
         <v>99.156866966545664</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -17549,7 +17530,7 @@
         <v>51.573576995954383</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -17576,7 +17557,7 @@
         <v>31.304331398092135</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -17603,7 +17584,7 @@
         <v>19.916122852254897</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -17630,7 +17611,7 @@
         <v>13.436320470359908</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -17657,7 +17638,7 @@
         <v>11.246959447594298</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -17684,7 +17665,7 @@
         <v>7.3449531086330113</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -17711,7 +17692,7 @@
         <v>4.6612202420171034</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -17738,7 +17719,7 @@
         <v>2.2246732973263446</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -17746,7 +17727,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -17754,7 +17735,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -17762,7 +17743,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -17770,7 +17751,7 @@
         <v>48561</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -17778,7 +17759,7 @@
         <v>30488</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -17786,7 +17767,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -17794,7 +17775,7 @@
         <v>5863</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -17813,23 +17794,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:G89"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.40625" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.1328125" customWidth="1"/>
-    <col min="7" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.15234375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.15234375" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -17866,11 +17847,11 @@
       <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -17911,7 +17892,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -17949,7 +17930,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -17987,7 +17968,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -18025,7 +18006,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -18063,7 +18044,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -18101,7 +18082,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -18139,7 +18120,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -18177,7 +18158,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -18215,7 +18196,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -18253,7 +18234,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -18291,7 +18272,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -18329,7 +18310,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -18364,7 +18345,7 @@
         <v>311.94268245629223</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -18399,7 +18380,7 @@
         <v>161.80938070330723</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -18434,7 +18415,7 @@
         <v>87.091992841610235</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -18469,7 +18450,7 @@
         <v>52.494641457119513</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -18504,7 +18485,7 @@
         <v>30.621763071217494</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -18539,7 +18520,7 @@
         <v>16.068860522318129</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -18574,7 +18555,7 @@
         <v>14.855579715910883</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -18609,7 +18590,7 @@
         <v>12.861276026451735</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -18644,7 +18625,7 @@
         <v>8.7975589591378185</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -18687,7 +18668,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18723,7 +18704,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18758,7 +18739,7 @@
         <v>0.48398891225466734</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18793,7 +18774,7 @@
         <v>1.2137655781428021</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18828,7 +18809,7 @@
         <v>4.4652970308189914</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18863,7 +18844,7 @@
         <v>18.430101264109943</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18898,7 +18879,7 @@
         <v>47.619000792992637</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18933,7 +18914,7 @@
         <v>94.65636737744191</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18968,7 +18949,7 @@
         <v>190.12840652651431</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19003,7 +18984,7 @@
         <v>336.1899836353092</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19038,7 +19019,7 @@
         <v>520.22186474397711</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19073,7 +19054,7 @@
         <v>520.03222706723886</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19108,7 +19089,7 @@
         <v>376.98321711761287</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19143,7 +19124,7 @@
         <v>216.21153469988741</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19178,7 +19159,7 @@
         <v>104.93181302293875</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19213,7 +19194,7 @@
         <v>48.909236603239926</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19248,7 +19229,7 @@
         <v>28.643305667108475</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19283,7 +19264,7 @@
         <v>18.82391550175943</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19318,7 +19299,7 @@
         <v>11.032392423867485</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19353,7 +19334,7 @@
         <v>11.314010916282282</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19388,7 +19369,7 @@
         <v>11.070479123397599</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19423,7 +19404,7 @@
         <v>6.5751530077356124</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19466,7 +19447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -19502,7 +19483,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -19537,7 +19518,7 @@
         <v>0.39462851765861984</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -19572,7 +19553,7 @@
         <v>1.5632132108104033</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -19607,7 +19588,7 @@
         <v>3.2601700618822655</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -19642,7 +19623,7 @@
         <v>11.891742724880359</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -19677,7 +19658,7 @@
         <v>26.336946559309734</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -19712,7 +19693,7 @@
         <v>52.983143935343676</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -19747,7 +19728,7 @@
         <v>135.07637354432313</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -19782,7 +19763,7 @@
         <v>291.80817565726011</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -19817,7 +19798,7 @@
         <v>709.0391378959348</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -19852,7 +19833,7 @@
         <v>1009.2439076395744</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -19887,7 +19868,7 @@
         <v>801.88005031658679</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -19922,7 +19903,7 @@
         <v>474.70164272720154</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -19957,7 +19938,7 @@
         <v>181.51265711451788</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -19992,7 +19973,7 @@
         <v>87.606726608307795</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -20027,7 +20008,7 @@
         <v>61.357443781848524</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -20062,7 +20043,7 @@
         <v>35.334882617438858</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -20097,7 +20078,7 @@
         <v>20.219183415282792</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -20132,7 +20113,7 @@
         <v>19.390902622314663</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -20167,7 +20148,7 @@
         <v>16.47043996922649</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20202,7 +20183,7 @@
         <v>9.6505692015674285</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -20245,7 +20226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20281,7 +20262,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20316,7 +20297,7 @@
         <v>-0.61815694988119652</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20351,7 +20332,7 @@
         <v>0.2947452401373436</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20373,20 +20354,20 @@
         <f>'Plate 3'!N78</f>
         <v>3.5312274560735629E-2</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
-        <v>0.1428687881390461</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="4"/>
-        <v>0.17096614793895901</v>
+      <c r="G71" s="13">
+        <f>AVERAGE(E71:F71)</f>
+        <v>4.4297861093686434E-2</v>
+      </c>
+      <c r="H71" s="13">
+        <f>STDEV(E71:F71)</f>
+        <v>1.2707538340776038E-2</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="5"/>
-        <v>5.7147515255618444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
+        <v>1.7719144437474574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20421,7 +20402,7 @@
         <v>7.8439971141327955</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20456,7 +20437,7 @@
         <v>21.925140115411228</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20491,7 +20472,7 @@
         <v>42.908987557181106</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20526,7 +20507,7 @@
         <v>107.55521824382555</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20561,7 +20542,7 @@
         <v>227.837462849068</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20596,7 +20577,7 @@
         <v>476.51244128886651</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20631,7 +20612,7 @@
         <v>597.55722597860517</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20666,7 +20647,7 @@
         <v>421.75475520925772</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20701,7 +20682,7 @@
         <v>245.43270961805871</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20736,7 +20717,7 @@
         <v>99.740088636615809</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20771,7 +20752,7 @@
         <v>49.819525930734187</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20806,7 +20787,7 @@
         <v>32.191472310548839</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20841,7 +20822,7 @@
         <v>20.113599155301081</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20876,7 +20857,7 @@
         <v>14.586129396664136</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20911,7 +20892,7 @@
         <v>11.91153677805314</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20946,7 +20927,7 @@
         <v>7.6327122097226416</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20981,7 +20962,7 @@
         <v>4.5199437137714886</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -21017,7 +20998,7 @@
       </c>
       <c r="J89">
         <f>SUM(I68:I89)</f>
-        <v>2396.8421161853394</v>
+        <v>2392.8992791035253</v>
       </c>
       <c r="K89" t="e">
         <f>J89/L68*100</f>
